--- a/metadata/Metadataoutput_GEODATA_sel_INSPIRE.xlsx
+++ b/metadata/Metadataoutput_GEODATA_sel_INSPIRE.xlsx
@@ -2505,9 +2505,6 @@
     <t>INSPIRE-NL Hoogte - TIN</t>
   </si>
   <si>
-    <t>INSPIRE.Vervoersnetwerken_GemeenschappelijkeVervoerselementen</t>
-  </si>
-  <si>
     <t>INSPIRE-NL Vervoersnetwerken - GemeenschappelijkeVervoerselementen</t>
   </si>
   <si>
@@ -3226,6 +3223,9 @@
   </si>
   <si>
     <t>-35.00</t>
+  </si>
+  <si>
+    <t>INSPIRE.Vervoersnetwerken_GemeenschappelijkeVervoerelementen</t>
   </si>
 </sst>
 </file>
@@ -5880,9 +5880,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GW275"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="FS1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="FW56" sqref="FW56"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6069,13 +6069,13 @@
   <sheetData>
     <row r="1" spans="1:205" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="83" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D1" s="77" t="s">
         <v>216</v>
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="77" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I1" s="77" t="s">
         <v>2</v>
@@ -6618,7 +6618,7 @@
       <c r="E2" s="50"/>
       <c r="F2" s="50"/>
       <c r="G2" s="85" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="H2" s="53"/>
       <c r="I2" s="53" t="s">
@@ -6730,7 +6730,7 @@
       </c>
       <c r="BA2" s="53"/>
       <c r="BB2" s="85" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="BC2" s="50" t="s">
         <v>182</v>
@@ -6804,7 +6804,7 @@
       </c>
       <c r="CO2" s="50"/>
       <c r="CP2" s="50" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ2" s="50" t="s">
         <v>213</v>
@@ -7018,7 +7018,7 @@
       <c r="E3" s="50"/>
       <c r="F3" s="50"/>
       <c r="G3" s="85" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H3" s="53"/>
       <c r="I3" s="53" t="s">
@@ -7130,7 +7130,7 @@
       </c>
       <c r="BA3" s="53"/>
       <c r="BB3" s="85" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="BC3" s="50" t="s">
         <v>182</v>
@@ -7204,7 +7204,7 @@
       </c>
       <c r="CO3" s="50"/>
       <c r="CP3" s="50" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ3" s="50" t="s">
         <v>213</v>
@@ -7418,7 +7418,7 @@
       <c r="E4" s="50"/>
       <c r="F4" s="50"/>
       <c r="G4" s="85" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H4" s="53"/>
       <c r="I4" s="53" t="s">
@@ -7530,7 +7530,7 @@
       </c>
       <c r="BA4" s="53"/>
       <c r="BB4" s="85" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="BC4" s="50" t="s">
         <v>182</v>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="CO4" s="50"/>
       <c r="CP4" s="50" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ4" s="50" t="s">
         <v>213</v>
@@ -7818,7 +7818,7 @@
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
       <c r="G5" s="85" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="H5" s="53"/>
       <c r="I5" s="53" t="s">
@@ -7930,7 +7930,7 @@
       </c>
       <c r="BA5" s="53"/>
       <c r="BB5" s="85" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="BC5" s="50" t="s">
         <v>182</v>
@@ -8004,7 +8004,7 @@
       </c>
       <c r="CO5" s="50"/>
       <c r="CP5" s="50" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ5" s="50" t="s">
         <v>213</v>
@@ -8216,7 +8216,7 @@
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" s="85" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="22" t="s">
@@ -8328,7 +8328,7 @@
       </c>
       <c r="BA6" s="22"/>
       <c r="BB6" s="22" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="BC6" s="21" t="s">
         <v>182</v>
@@ -8402,7 +8402,7 @@
       </c>
       <c r="CO6" s="21"/>
       <c r="CP6" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ6" s="21" t="s">
         <v>213</v>
@@ -8614,7 +8614,7 @@
       <c r="E7" s="21"/>
       <c r="F7" s="21"/>
       <c r="G7" s="85" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="22" t="s">
@@ -8726,7 +8726,7 @@
       </c>
       <c r="BA7" s="22"/>
       <c r="BB7" s="22" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="BC7" s="21" t="s">
         <v>182</v>
@@ -8800,7 +8800,7 @@
       </c>
       <c r="CO7" s="21"/>
       <c r="CP7" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ7" s="21" t="s">
         <v>213</v>
@@ -9012,7 +9012,7 @@
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="85" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="H8" s="22"/>
       <c r="I8" s="22" t="s">
@@ -9124,7 +9124,7 @@
       </c>
       <c r="BA8" s="22"/>
       <c r="BB8" s="22" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="BC8" s="21" t="s">
         <v>182</v>
@@ -9198,7 +9198,7 @@
       </c>
       <c r="CO8" s="21"/>
       <c r="CP8" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ8" s="21" t="s">
         <v>213</v>
@@ -9410,7 +9410,7 @@
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
       <c r="G9" s="85" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="22" t="s">
@@ -9522,7 +9522,7 @@
       </c>
       <c r="BA9" s="22"/>
       <c r="BB9" s="22" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="BC9" s="21" t="s">
         <v>182</v>
@@ -9596,7 +9596,7 @@
       </c>
       <c r="CO9" s="21"/>
       <c r="CP9" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ9" s="21" t="s">
         <v>213</v>
@@ -9808,7 +9808,7 @@
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
       <c r="G10" s="85" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="22" t="s">
@@ -9920,7 +9920,7 @@
       </c>
       <c r="BA10" s="22"/>
       <c r="BB10" s="22" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="BC10" s="21" t="s">
         <v>182</v>
@@ -9994,7 +9994,7 @@
       </c>
       <c r="CO10" s="21"/>
       <c r="CP10" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ10" s="21" t="s">
         <v>213</v>
@@ -10206,7 +10206,7 @@
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
       <c r="G11" s="85" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="22" t="s">
@@ -10318,7 +10318,7 @@
       </c>
       <c r="BA11" s="22"/>
       <c r="BB11" s="22" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="BC11" s="21" t="s">
         <v>182</v>
@@ -10392,7 +10392,7 @@
       </c>
       <c r="CO11" s="21"/>
       <c r="CP11" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ11" s="21" t="s">
         <v>213</v>
@@ -10604,7 +10604,7 @@
       <c r="E12" s="21"/>
       <c r="F12" s="23"/>
       <c r="G12" s="85" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="22" t="s">
@@ -10716,7 +10716,7 @@
       </c>
       <c r="BA12" s="22"/>
       <c r="BB12" s="22" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="BC12" s="21" t="s">
         <v>182</v>
@@ -10790,7 +10790,7 @@
       </c>
       <c r="CO12" s="21"/>
       <c r="CP12" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ12" s="21" t="s">
         <v>213</v>
@@ -11002,7 +11002,7 @@
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="85" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22" t="s">
@@ -11114,7 +11114,7 @@
       </c>
       <c r="BA13" s="22"/>
       <c r="BB13" s="22" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="BC13" s="21" t="s">
         <v>182</v>
@@ -11188,7 +11188,7 @@
       </c>
       <c r="CO13" s="21"/>
       <c r="CP13" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ13" s="21" t="s">
         <v>213</v>
@@ -11400,7 +11400,7 @@
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="85" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="22" t="s">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="BA14" s="22"/>
       <c r="BB14" s="22" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="BC14" s="21" t="s">
         <v>182</v>
@@ -11586,7 +11586,7 @@
       </c>
       <c r="CO14" s="21"/>
       <c r="CP14" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ14" s="21" t="s">
         <v>213</v>
@@ -11798,7 +11798,7 @@
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
       <c r="G15" s="85" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="22" t="s">
@@ -11910,7 +11910,7 @@
       </c>
       <c r="BA15" s="22"/>
       <c r="BB15" s="22" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="BC15" s="21" t="s">
         <v>182</v>
@@ -11984,7 +11984,7 @@
       </c>
       <c r="CO15" s="21"/>
       <c r="CP15" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ15" s="21" t="s">
         <v>213</v>
@@ -12196,7 +12196,7 @@
       <c r="E16" s="21"/>
       <c r="F16" s="21"/>
       <c r="G16" s="85" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22" t="s">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="BA16" s="22"/>
       <c r="BB16" s="22" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="BC16" s="21" t="s">
         <v>182</v>
@@ -12382,7 +12382,7 @@
       </c>
       <c r="CO16" s="21"/>
       <c r="CP16" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ16" s="21" t="s">
         <v>213</v>
@@ -12594,7 +12594,7 @@
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="85" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22" t="s">
@@ -12706,7 +12706,7 @@
       </c>
       <c r="BA17" s="22"/>
       <c r="BB17" s="22" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="BC17" s="21" t="s">
         <v>182</v>
@@ -12780,7 +12780,7 @@
       </c>
       <c r="CO17" s="21"/>
       <c r="CP17" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ17" s="21" t="s">
         <v>213</v>
@@ -12992,7 +12992,7 @@
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="85" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="22" t="s">
@@ -13104,7 +13104,7 @@
       </c>
       <c r="BA18" s="22"/>
       <c r="BB18" s="22" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="BC18" s="21" t="s">
         <v>182</v>
@@ -13178,7 +13178,7 @@
       </c>
       <c r="CO18" s="21"/>
       <c r="CP18" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ18" s="21" t="s">
         <v>213</v>
@@ -13390,7 +13390,7 @@
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="85" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="22" t="s">
@@ -13502,7 +13502,7 @@
       </c>
       <c r="BA19" s="22"/>
       <c r="BB19" s="22" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="BC19" s="21" t="s">
         <v>182</v>
@@ -13576,7 +13576,7 @@
       </c>
       <c r="CO19" s="21"/>
       <c r="CP19" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ19" s="21" t="s">
         <v>213</v>
@@ -13851,7 +13851,7 @@
         <v>813</v>
       </c>
       <c r="AD20" s="75" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AE20" s="58" t="s">
         <v>261</v>
@@ -13912,7 +13912,7 @@
       </c>
       <c r="BA20" s="58"/>
       <c r="BB20" s="58" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BC20" s="60" t="s">
         <v>182</v>
@@ -13953,7 +13953,7 @@
         <v>171</v>
       </c>
       <c r="CC20" s="60" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD20" s="60" t="s">
         <v>324</v>
@@ -13986,7 +13986,7 @@
       </c>
       <c r="CO20" s="60"/>
       <c r="CP20" s="60" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ20" s="60" t="s">
         <v>213</v>
@@ -14261,7 +14261,7 @@
         <v>815</v>
       </c>
       <c r="AD21" s="78" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="AE21" s="58" t="s">
         <v>261</v>
@@ -14320,7 +14320,7 @@
       </c>
       <c r="BA21" s="58"/>
       <c r="BB21" s="13" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC21" s="60" t="s">
         <v>182</v>
@@ -14361,7 +14361,7 @@
         <v>171</v>
       </c>
       <c r="CC21" s="60" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD21" s="60" t="s">
         <v>324</v>
@@ -14394,7 +14394,7 @@
       </c>
       <c r="CO21" s="60"/>
       <c r="CP21" s="60" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ21" s="60" t="s">
         <v>213</v>
@@ -14661,10 +14661,10 @@
         <v>199</v>
       </c>
       <c r="AC22" s="76" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="AD22" s="76" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AE22" s="16" t="s">
         <v>261</v>
@@ -14720,7 +14720,7 @@
         <v>188</v>
       </c>
       <c r="BB22" s="16" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC22" s="14" t="s">
         <v>182</v>
@@ -14742,7 +14742,7 @@
         <v>171</v>
       </c>
       <c r="CC22" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD22" s="14" t="s">
         <v>324</v>
@@ -14775,7 +14775,7 @@
       </c>
       <c r="CO22" s="14"/>
       <c r="CP22" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ22" s="14" t="s">
         <v>213</v>
@@ -15046,10 +15046,10 @@
         <v>199</v>
       </c>
       <c r="AC23" s="76" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="AD23" s="76" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="AE23" s="16" t="s">
         <v>261</v>
@@ -15109,7 +15109,7 @@
       </c>
       <c r="BA23" s="16"/>
       <c r="BB23" s="16" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC23" s="14" t="s">
         <v>182</v>
@@ -15149,7 +15149,7 @@
         <v>171</v>
       </c>
       <c r="CC23" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD23" s="14" t="s">
         <v>324</v>
@@ -15179,7 +15179,7 @@
         <v>221</v>
       </c>
       <c r="CP23" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ23" s="14" t="s">
         <v>213</v>
@@ -15383,10 +15383,10 @@
         <v>199</v>
       </c>
       <c r="AC24" s="76" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="AD24" s="76" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="AE24" s="16" t="s">
         <v>261</v>
@@ -15446,7 +15446,7 @@
       </c>
       <c r="BA24" s="16"/>
       <c r="BB24" s="16" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC24" s="14" t="s">
         <v>182</v>
@@ -15486,7 +15486,7 @@
         <v>171</v>
       </c>
       <c r="CC24" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD24" s="14" t="s">
         <v>324</v>
@@ -15516,7 +15516,7 @@
         <v>221</v>
       </c>
       <c r="CP24" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ24" s="14" t="s">
         <v>213</v>
@@ -15720,10 +15720,10 @@
         <v>199</v>
       </c>
       <c r="AC25" s="76" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="AD25" s="76" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="AE25" s="16" t="s">
         <v>261</v>
@@ -15783,7 +15783,7 @@
       </c>
       <c r="BA25" s="16"/>
       <c r="BB25" s="16" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC25" s="14" t="s">
         <v>182</v>
@@ -15823,7 +15823,7 @@
         <v>171</v>
       </c>
       <c r="CC25" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD25" s="14" t="s">
         <v>324</v>
@@ -15853,7 +15853,7 @@
         <v>221</v>
       </c>
       <c r="CP25" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ25" s="14" t="s">
         <v>213</v>
@@ -16056,10 +16056,10 @@
         <v>199</v>
       </c>
       <c r="AC26" s="76" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AD26" s="76" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="AE26" s="16" t="s">
         <v>261</v>
@@ -16119,7 +16119,7 @@
       </c>
       <c r="BA26" s="16"/>
       <c r="BB26" s="16" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC26" s="14" t="s">
         <v>182</v>
@@ -16159,7 +16159,7 @@
         <v>171</v>
       </c>
       <c r="CC26" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD26" s="14" t="s">
         <v>324</v>
@@ -16189,7 +16189,7 @@
         <v>221</v>
       </c>
       <c r="CP26" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ26" s="14" t="s">
         <v>213</v>
@@ -16392,10 +16392,10 @@
         <v>199</v>
       </c>
       <c r="AC27" s="76" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AD27" s="76" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AE27" s="16" t="s">
         <v>261</v>
@@ -16455,7 +16455,7 @@
       </c>
       <c r="BA27" s="16"/>
       <c r="BB27" s="16" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC27" s="14" t="s">
         <v>182</v>
@@ -16495,7 +16495,7 @@
         <v>171</v>
       </c>
       <c r="CC27" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD27" s="14" t="s">
         <v>324</v>
@@ -16525,7 +16525,7 @@
         <v>221</v>
       </c>
       <c r="CP27" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ27" s="14" t="s">
         <v>213</v>
@@ -16728,10 +16728,10 @@
         <v>199</v>
       </c>
       <c r="AC28" s="76" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="AD28" s="76" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="AE28" s="16" t="s">
         <v>261</v>
@@ -16791,7 +16791,7 @@
       </c>
       <c r="BA28" s="16"/>
       <c r="BB28" s="16" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC28" s="14" t="s">
         <v>182</v>
@@ -16831,7 +16831,7 @@
         <v>171</v>
       </c>
       <c r="CC28" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD28" s="14" t="s">
         <v>324</v>
@@ -16861,7 +16861,7 @@
         <v>221</v>
       </c>
       <c r="CP28" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ28" s="14" t="s">
         <v>213</v>
@@ -17066,10 +17066,10 @@
         <v>199</v>
       </c>
       <c r="AC29" s="76" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AD29" s="76" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="AE29" s="16" t="s">
         <v>261</v>
@@ -17130,7 +17130,7 @@
       </c>
       <c r="BA29" s="16"/>
       <c r="BB29" s="16" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC29" s="14" t="s">
         <v>182</v>
@@ -17171,7 +17171,7 @@
         <v>171</v>
       </c>
       <c r="CC29" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD29" s="14" t="s">
         <v>324</v>
@@ -17204,7 +17204,7 @@
       </c>
       <c r="CO29" s="14"/>
       <c r="CP29" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ29" s="14" t="s">
         <v>213</v>
@@ -17415,7 +17415,7 @@
         <v>712</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
@@ -17474,10 +17474,10 @@
         <v>199</v>
       </c>
       <c r="AC30" s="76" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="AD30" s="76" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AE30" s="16" t="s">
         <v>261</v>
@@ -17538,7 +17538,7 @@
       </c>
       <c r="BA30" s="16"/>
       <c r="BB30" s="16" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC30" s="14" t="s">
         <v>182</v>
@@ -17579,7 +17579,7 @@
         <v>171</v>
       </c>
       <c r="CC30" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD30" s="14" t="s">
         <v>324</v>
@@ -17612,7 +17612,7 @@
       </c>
       <c r="CO30" s="14"/>
       <c r="CP30" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ30" s="14" t="s">
         <v>213</v>
@@ -17884,10 +17884,10 @@
         <v>199</v>
       </c>
       <c r="AC31" s="75" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AD31" s="75" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AE31" s="58" t="s">
         <v>261</v>
@@ -17946,7 +17946,7 @@
       </c>
       <c r="BA31" s="58"/>
       <c r="BB31" s="13" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC31" s="60" t="s">
         <v>182</v>
@@ -17987,7 +17987,7 @@
         <v>171</v>
       </c>
       <c r="CC31" s="60" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD31" s="60" t="s">
         <v>324</v>
@@ -18020,7 +18020,7 @@
       </c>
       <c r="CO31" s="60"/>
       <c r="CP31" s="60" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ31" s="60" t="s">
         <v>213</v>
@@ -18292,10 +18292,10 @@
         <v>199</v>
       </c>
       <c r="AC32" s="76" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AD32" s="76" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="AE32" s="16" t="s">
         <v>261</v>
@@ -18356,7 +18356,7 @@
       </c>
       <c r="BA32" s="16"/>
       <c r="BB32" s="16" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC32" s="14" t="s">
         <v>182</v>
@@ -18397,7 +18397,7 @@
         <v>171</v>
       </c>
       <c r="CC32" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD32" s="14" t="s">
         <v>324</v>
@@ -18430,7 +18430,7 @@
       </c>
       <c r="CO32" s="14"/>
       <c r="CP32" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ32" s="14" t="s">
         <v>213</v>
@@ -18702,10 +18702,10 @@
         <v>199</v>
       </c>
       <c r="AC33" s="76" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AD33" s="76" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="AE33" s="16" t="s">
         <v>261</v>
@@ -18766,7 +18766,7 @@
       </c>
       <c r="BA33" s="16"/>
       <c r="BB33" s="16" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC33" s="14" t="s">
         <v>182</v>
@@ -18807,7 +18807,7 @@
         <v>171</v>
       </c>
       <c r="CC33" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD33" s="14" t="s">
         <v>324</v>
@@ -18840,7 +18840,7 @@
       </c>
       <c r="CO33" s="14"/>
       <c r="CP33" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ33" s="14" t="s">
         <v>213</v>
@@ -19112,10 +19112,10 @@
         <v>199</v>
       </c>
       <c r="AC34" s="76" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AD34" s="76" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="AE34" s="16" t="s">
         <v>261</v>
@@ -19176,7 +19176,7 @@
       </c>
       <c r="BA34" s="16"/>
       <c r="BB34" s="16" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC34" s="14" t="s">
         <v>182</v>
@@ -19217,7 +19217,7 @@
         <v>171</v>
       </c>
       <c r="CC34" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD34" s="14" t="s">
         <v>324</v>
@@ -19250,7 +19250,7 @@
       </c>
       <c r="CO34" s="14"/>
       <c r="CP34" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ34" s="14" t="s">
         <v>213</v>
@@ -19522,10 +19522,10 @@
         <v>199</v>
       </c>
       <c r="AC35" s="76" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AD35" s="76" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="AE35" s="16" t="s">
         <v>261</v>
@@ -19586,7 +19586,7 @@
       </c>
       <c r="BA35" s="16"/>
       <c r="BB35" s="16" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC35" s="14" t="s">
         <v>182</v>
@@ -19627,7 +19627,7 @@
         <v>171</v>
       </c>
       <c r="CC35" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD35" s="14" t="s">
         <v>324</v>
@@ -19660,7 +19660,7 @@
       </c>
       <c r="CO35" s="14"/>
       <c r="CP35" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ35" s="14" t="s">
         <v>213</v>
@@ -19932,10 +19932,10 @@
         <v>199</v>
       </c>
       <c r="AC36" s="76" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AD36" s="76" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="AE36" s="16" t="s">
         <v>261</v>
@@ -19996,7 +19996,7 @@
       </c>
       <c r="BA36" s="16"/>
       <c r="BB36" s="16" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC36" s="14" t="s">
         <v>182</v>
@@ -20037,7 +20037,7 @@
         <v>171</v>
       </c>
       <c r="CC36" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD36" s="14" t="s">
         <v>324</v>
@@ -20070,7 +20070,7 @@
       </c>
       <c r="CO36" s="14"/>
       <c r="CP36" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ36" s="14" t="s">
         <v>213</v>
@@ -20340,10 +20340,10 @@
         <v>199</v>
       </c>
       <c r="AC37" s="76" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AD37" s="76" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="AE37" s="16" t="s">
         <v>261</v>
@@ -20403,7 +20403,7 @@
       </c>
       <c r="BA37" s="16"/>
       <c r="BB37" s="16" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC37" s="14" t="s">
         <v>182</v>
@@ -20443,7 +20443,7 @@
         <v>171</v>
       </c>
       <c r="CC37" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD37" s="14" t="s">
         <v>324</v>
@@ -20473,7 +20473,7 @@
         <v>221</v>
       </c>
       <c r="CP37" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ37" s="14" t="s">
         <v>213</v>
@@ -20676,10 +20676,10 @@
         <v>199</v>
       </c>
       <c r="AC38" s="76" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AD38" s="76" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AE38" s="16" t="s">
         <v>261</v>
@@ -20739,7 +20739,7 @@
       </c>
       <c r="BA38" s="16"/>
       <c r="BB38" s="16" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC38" s="14" t="s">
         <v>182</v>
@@ -20779,7 +20779,7 @@
         <v>171</v>
       </c>
       <c r="CC38" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD38" s="14" t="s">
         <v>324</v>
@@ -20809,7 +20809,7 @@
         <v>221</v>
       </c>
       <c r="CP38" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ38" s="14" t="s">
         <v>213</v>
@@ -21009,10 +21009,10 @@
         <v>199</v>
       </c>
       <c r="AC39" s="76" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AD39" s="76" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AE39" s="16" t="s">
         <v>261</v>
@@ -21072,7 +21072,7 @@
       </c>
       <c r="BA39" s="16"/>
       <c r="BB39" s="16" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC39" s="14" t="s">
         <v>182</v>
@@ -21112,7 +21112,7 @@
         <v>171</v>
       </c>
       <c r="CC39" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD39" s="14" t="s">
         <v>324</v>
@@ -21142,7 +21142,7 @@
         <v>221</v>
       </c>
       <c r="CP39" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ39" s="14" t="s">
         <v>213</v>
@@ -21347,10 +21347,10 @@
         <v>199</v>
       </c>
       <c r="AC40" s="75" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="AD40" s="75" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="AE40" s="46" t="s">
         <v>261</v>
@@ -21411,7 +21411,7 @@
       </c>
       <c r="BA40" s="46"/>
       <c r="BB40" s="13" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC40" s="43" t="s">
         <v>182</v>
@@ -21452,7 +21452,7 @@
         <v>171</v>
       </c>
       <c r="CC40" s="43" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD40" s="43" t="s">
         <v>324</v>
@@ -21485,7 +21485,7 @@
       </c>
       <c r="CO40" s="43"/>
       <c r="CP40" s="43" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ40" s="43" t="s">
         <v>213</v>
@@ -21755,10 +21755,10 @@
         <v>199</v>
       </c>
       <c r="AC41" s="76" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="AD41" s="76" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="AE41" s="16" t="s">
         <v>261</v>
@@ -21818,7 +21818,7 @@
       </c>
       <c r="BA41" s="16"/>
       <c r="BB41" s="16" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC41" s="14" t="s">
         <v>182</v>
@@ -21858,7 +21858,7 @@
         <v>171</v>
       </c>
       <c r="CC41" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD41" s="14" t="s">
         <v>324</v>
@@ -21888,7 +21888,7 @@
         <v>221</v>
       </c>
       <c r="CP41" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ41" s="14" t="s">
         <v>213</v>
@@ -22093,10 +22093,10 @@
         <v>199</v>
       </c>
       <c r="AC42" s="76" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="AD42" s="76" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AE42" s="16" t="s">
         <v>261</v>
@@ -22157,7 +22157,7 @@
       </c>
       <c r="BA42" s="16"/>
       <c r="BB42" s="16" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC42" s="14" t="s">
         <v>182</v>
@@ -22198,7 +22198,7 @@
         <v>171</v>
       </c>
       <c r="CC42" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD42" s="14" t="s">
         <v>324</v>
@@ -22231,7 +22231,7 @@
       </c>
       <c r="CO42" s="14"/>
       <c r="CP42" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ42" s="14" t="s">
         <v>213</v>
@@ -22501,10 +22501,10 @@
         <v>199</v>
       </c>
       <c r="AC43" s="76" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="AD43" s="76" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AE43" s="16" t="s">
         <v>261</v>
@@ -22565,7 +22565,7 @@
       </c>
       <c r="BA43" s="16"/>
       <c r="BB43" s="16" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC43" s="14" t="s">
         <v>182</v>
@@ -22606,7 +22606,7 @@
         <v>171</v>
       </c>
       <c r="CC43" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD43" s="14" t="s">
         <v>324</v>
@@ -22639,7 +22639,7 @@
       </c>
       <c r="CO43" s="14"/>
       <c r="CP43" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ43" s="14" t="s">
         <v>213</v>
@@ -22907,10 +22907,10 @@
         <v>199</v>
       </c>
       <c r="AC44" s="80" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AD44" s="80" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="AE44" s="22" t="s">
         <v>261</v>
@@ -22971,7 +22971,7 @@
       </c>
       <c r="BA44" s="22"/>
       <c r="BB44" s="22" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC44" s="21" t="s">
         <v>182</v>
@@ -23012,7 +23012,7 @@
         <v>171</v>
       </c>
       <c r="CC44" s="21" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD44" s="21" t="s">
         <v>324</v>
@@ -23045,7 +23045,7 @@
       </c>
       <c r="CO44" s="21"/>
       <c r="CP44" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ44" s="21" t="s">
         <v>213</v>
@@ -23313,10 +23313,10 @@
         <v>199</v>
       </c>
       <c r="AC45" s="80" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AD45" s="80" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="AE45" s="22" t="s">
         <v>261</v>
@@ -23377,7 +23377,7 @@
       </c>
       <c r="BA45" s="22"/>
       <c r="BB45" s="22" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC45" s="21" t="s">
         <v>182</v>
@@ -23418,7 +23418,7 @@
         <v>171</v>
       </c>
       <c r="CC45" s="21" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD45" s="21" t="s">
         <v>324</v>
@@ -23451,7 +23451,7 @@
       </c>
       <c r="CO45" s="21"/>
       <c r="CP45" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ45" s="21" t="s">
         <v>213</v>
@@ -23719,10 +23719,10 @@
         <v>199</v>
       </c>
       <c r="AC46" s="80" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="AD46" s="80" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="AE46" s="22" t="s">
         <v>261</v>
@@ -23783,7 +23783,7 @@
       </c>
       <c r="BA46" s="22"/>
       <c r="BB46" s="22" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC46" s="21" t="s">
         <v>182</v>
@@ -23824,7 +23824,7 @@
         <v>171</v>
       </c>
       <c r="CC46" s="21" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD46" s="21" t="s">
         <v>324</v>
@@ -23857,7 +23857,7 @@
       </c>
       <c r="CO46" s="21"/>
       <c r="CP46" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ46" s="21" t="s">
         <v>213</v>
@@ -24125,10 +24125,10 @@
         <v>199</v>
       </c>
       <c r="AC47" s="80" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="AD47" s="80" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="AE47" s="22" t="s">
         <v>261</v>
@@ -24189,7 +24189,7 @@
       </c>
       <c r="BA47" s="22"/>
       <c r="BB47" s="22" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC47" s="21" t="s">
         <v>182</v>
@@ -24230,7 +24230,7 @@
         <v>171</v>
       </c>
       <c r="CC47" s="21" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD47" s="21" t="s">
         <v>324</v>
@@ -24263,7 +24263,7 @@
       </c>
       <c r="CO47" s="21"/>
       <c r="CP47" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ47" s="21" t="s">
         <v>213</v>
@@ -24531,10 +24531,10 @@
         <v>199</v>
       </c>
       <c r="AC48" s="80" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="AD48" s="80" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="AE48" s="22" t="s">
         <v>261</v>
@@ -24595,7 +24595,7 @@
       </c>
       <c r="BA48" s="22"/>
       <c r="BB48" s="22" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="BC48" s="21" t="s">
         <v>182</v>
@@ -24636,7 +24636,7 @@
         <v>171</v>
       </c>
       <c r="CC48" s="21" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="CD48" s="21" t="s">
         <v>324</v>
@@ -24669,7 +24669,7 @@
       </c>
       <c r="CO48" s="21"/>
       <c r="CP48" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ48" s="21" t="s">
         <v>213</v>
@@ -24873,19 +24873,19 @@
     </row>
     <row r="49" spans="1:205" s="43" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="86" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="B49" s="87"/>
       <c r="C49" s="86"/>
       <c r="D49" s="86" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E49" s="86"/>
       <c r="F49" s="86" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G49" s="86" t="s">
         <v>1057</v>
-      </c>
-      <c r="G49" s="86" t="s">
-        <v>1058</v>
       </c>
       <c r="H49" s="86"/>
       <c r="I49" s="87" t="s">
@@ -24939,10 +24939,10 @@
         <v>199</v>
       </c>
       <c r="AC49" s="90" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AD49" s="91" t="s">
         <v>1059</v>
-      </c>
-      <c r="AD49" s="91" t="s">
-        <v>1060</v>
       </c>
       <c r="AE49" s="87" t="s">
         <v>261</v>
@@ -25003,7 +25003,7 @@
       </c>
       <c r="BA49" s="87"/>
       <c r="BB49" s="87" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="BC49" s="86" t="s">
         <v>182</v>
@@ -25044,7 +25044,7 @@
         <v>171</v>
       </c>
       <c r="CC49" s="86" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="CD49" s="86" t="s">
         <v>324</v>
@@ -25077,7 +25077,7 @@
       </c>
       <c r="CO49" s="86"/>
       <c r="CP49" s="86" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ49" s="86" t="s">
         <v>213</v>
@@ -25247,10 +25247,10 @@
         <v>537</v>
       </c>
       <c r="FV49" s="87" t="s">
+        <v>1061</v>
+      </c>
+      <c r="FW49" s="87" t="s">
         <v>1062</v>
-      </c>
-      <c r="FW49" s="87" t="s">
-        <v>1063</v>
       </c>
       <c r="FX49" s="86"/>
       <c r="FY49" s="86"/>
@@ -25350,7 +25350,7 @@
         <v>816</v>
       </c>
       <c r="AD50" s="37" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="AE50" s="28" t="s">
         <v>261</v>
@@ -25411,7 +25411,7 @@
       </c>
       <c r="BA50" s="28"/>
       <c r="BB50" s="28" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="BC50" s="27" t="s">
         <v>182</v>
@@ -25452,7 +25452,7 @@
         <v>171</v>
       </c>
       <c r="CC50" s="27" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="CD50" s="27" t="s">
         <v>324</v>
@@ -25485,7 +25485,7 @@
       </c>
       <c r="CO50" s="27"/>
       <c r="CP50" s="27" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ50" s="27" t="s">
         <v>213</v>
@@ -25655,10 +25655,10 @@
         <v>537</v>
       </c>
       <c r="FV50" s="28" t="s">
+        <v>1061</v>
+      </c>
+      <c r="FW50" s="28" t="s">
         <v>1062</v>
-      </c>
-      <c r="FW50" s="28" t="s">
-        <v>1063</v>
       </c>
       <c r="FX50" s="27"/>
       <c r="FY50" s="27"/>
@@ -25758,7 +25758,7 @@
         <v>818</v>
       </c>
       <c r="AD51" s="37" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="AE51" s="28" t="s">
         <v>261</v>
@@ -25819,7 +25819,7 @@
       </c>
       <c r="BA51" s="28"/>
       <c r="BB51" s="28" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="BC51" s="27" t="s">
         <v>182</v>
@@ -25860,7 +25860,7 @@
         <v>171</v>
       </c>
       <c r="CC51" s="27" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="CD51" s="27" t="s">
         <v>324</v>
@@ -25893,7 +25893,7 @@
       </c>
       <c r="CO51" s="27"/>
       <c r="CP51" s="27" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ51" s="27" t="s">
         <v>213</v>
@@ -26063,10 +26063,10 @@
         <v>537</v>
       </c>
       <c r="FV51" s="28" t="s">
+        <v>1061</v>
+      </c>
+      <c r="FW51" s="28" t="s">
         <v>1062</v>
-      </c>
-      <c r="FW51" s="28" t="s">
-        <v>1063</v>
       </c>
       <c r="FX51" s="27"/>
       <c r="FY51" s="27"/>
@@ -26164,7 +26164,7 @@
         <v>821</v>
       </c>
       <c r="AD52" s="37" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="AE52" s="28" t="s">
         <v>261</v>
@@ -26225,7 +26225,7 @@
       </c>
       <c r="BA52" s="28"/>
       <c r="BB52" s="28" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="BC52" s="27" t="s">
         <v>182</v>
@@ -26266,7 +26266,7 @@
         <v>171</v>
       </c>
       <c r="CC52" s="27" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="CD52" s="27" t="s">
         <v>324</v>
@@ -26299,7 +26299,7 @@
       </c>
       <c r="CO52" s="27"/>
       <c r="CP52" s="27" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ52" s="27" t="s">
         <v>213</v>
@@ -26469,10 +26469,10 @@
         <v>537</v>
       </c>
       <c r="FV52" s="28" t="s">
+        <v>1061</v>
+      </c>
+      <c r="FW52" s="28" t="s">
         <v>1062</v>
-      </c>
-      <c r="FW52" s="28" t="s">
-        <v>1063</v>
       </c>
       <c r="FX52" s="27"/>
       <c r="FY52" s="27"/>
@@ -26570,7 +26570,7 @@
         <v>822</v>
       </c>
       <c r="AD53" s="37" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AE53" s="28" t="s">
         <v>261</v>
@@ -26631,7 +26631,7 @@
       </c>
       <c r="BA53" s="28"/>
       <c r="BB53" s="28" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="BC53" s="27" t="s">
         <v>182</v>
@@ -26672,7 +26672,7 @@
         <v>171</v>
       </c>
       <c r="CC53" s="27" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="CD53" s="27" t="s">
         <v>324</v>
@@ -26705,7 +26705,7 @@
       </c>
       <c r="CO53" s="27"/>
       <c r="CP53" s="27" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ53" s="27" t="s">
         <v>213</v>
@@ -26875,10 +26875,10 @@
         <v>537</v>
       </c>
       <c r="FV53" s="28" t="s">
+        <v>1061</v>
+      </c>
+      <c r="FW53" s="28" t="s">
         <v>1062</v>
-      </c>
-      <c r="FW53" s="28" t="s">
-        <v>1063</v>
       </c>
       <c r="FX53" s="27"/>
       <c r="FY53" s="27"/>
@@ -26978,7 +26978,7 @@
         <v>817</v>
       </c>
       <c r="AD54" s="37" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AE54" s="28" t="s">
         <v>261</v>
@@ -27039,7 +27039,7 @@
       </c>
       <c r="BA54" s="28"/>
       <c r="BB54" s="28" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="BC54" s="27" t="s">
         <v>182</v>
@@ -27080,7 +27080,7 @@
         <v>171</v>
       </c>
       <c r="CC54" s="27" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="CD54" s="27" t="s">
         <v>324</v>
@@ -27113,7 +27113,7 @@
       </c>
       <c r="CO54" s="27"/>
       <c r="CP54" s="27" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ54" s="27" t="s">
         <v>213</v>
@@ -27283,10 +27283,10 @@
         <v>537</v>
       </c>
       <c r="FV54" s="28" t="s">
+        <v>1061</v>
+      </c>
+      <c r="FW54" s="28" t="s">
         <v>1062</v>
-      </c>
-      <c r="FW54" s="28" t="s">
-        <v>1063</v>
       </c>
       <c r="FX54" s="27"/>
       <c r="FY54" s="27"/>
@@ -27386,7 +27386,7 @@
         <v>820</v>
       </c>
       <c r="AD55" s="37" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AE55" s="28" t="s">
         <v>261</v>
@@ -27447,7 +27447,7 @@
       </c>
       <c r="BA55" s="28"/>
       <c r="BB55" s="28" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="BC55" s="27" t="s">
         <v>182</v>
@@ -27488,7 +27488,7 @@
         <v>171</v>
       </c>
       <c r="CC55" s="27" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="CD55" s="27" t="s">
         <v>324</v>
@@ -27521,7 +27521,7 @@
       </c>
       <c r="CO55" s="27"/>
       <c r="CP55" s="27" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ55" s="27" t="s">
         <v>213</v>
@@ -27691,10 +27691,10 @@
         <v>537</v>
       </c>
       <c r="FV55" s="28" t="s">
+        <v>1061</v>
+      </c>
+      <c r="FW55" s="28" t="s">
         <v>1062</v>
-      </c>
-      <c r="FW55" s="28" t="s">
-        <v>1063</v>
       </c>
       <c r="FX55" s="27"/>
       <c r="FY55" s="27"/>
@@ -27794,7 +27794,7 @@
         <v>819</v>
       </c>
       <c r="AD56" s="37" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="AE56" s="28" t="s">
         <v>261</v>
@@ -27855,7 +27855,7 @@
       </c>
       <c r="BA56" s="28"/>
       <c r="BB56" s="28" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="BC56" s="27" t="s">
         <v>182</v>
@@ -27896,7 +27896,7 @@
         <v>171</v>
       </c>
       <c r="CC56" s="27" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="CD56" s="27" t="s">
         <v>324</v>
@@ -27929,7 +27929,7 @@
       </c>
       <c r="CO56" s="27"/>
       <c r="CP56" s="27" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ56" s="27" t="s">
         <v>213</v>
@@ -28099,10 +28099,10 @@
         <v>537</v>
       </c>
       <c r="FV56" s="28" t="s">
+        <v>1061</v>
+      </c>
+      <c r="FW56" s="28" t="s">
         <v>1062</v>
-      </c>
-      <c r="FW56" s="28" t="s">
-        <v>1063</v>
       </c>
       <c r="FX56" s="27"/>
       <c r="FY56" s="27"/>
@@ -28202,7 +28202,7 @@
         <v>814</v>
       </c>
       <c r="AD57" s="78" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AE57" s="58" t="s">
         <v>261</v>
@@ -28219,7 +28219,7 @@
       </c>
       <c r="AI57" s="58"/>
       <c r="AJ57" s="84" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="AK57" s="63" t="s">
         <v>339</v>
@@ -28263,7 +28263,7 @@
       </c>
       <c r="BA57" s="58"/>
       <c r="BB57" s="58" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC57" s="60" t="s">
         <v>182</v>
@@ -28337,7 +28337,7 @@
       </c>
       <c r="CO57" s="60"/>
       <c r="CP57" s="60" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ57" s="60" t="s">
         <v>213</v>
@@ -28548,7 +28548,7 @@
         <v>703</v>
       </c>
       <c r="D58" s="43" t="s">
-        <v>823</v>
+        <v>1063</v>
       </c>
       <c r="E58" s="43"/>
       <c r="F58" s="43" t="s">
@@ -28609,10 +28609,10 @@
         <v>199</v>
       </c>
       <c r="AC58" s="75" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AD58" s="78" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="AE58" s="46" t="s">
         <v>261</v>
@@ -28671,7 +28671,7 @@
       </c>
       <c r="BA58" s="46"/>
       <c r="BB58" s="46" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC58" s="43" t="s">
         <v>182</v>
@@ -28745,7 +28745,7 @@
       </c>
       <c r="CO58" s="43"/>
       <c r="CP58" s="43" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ58" s="43" t="s">
         <v>213</v>
@@ -29014,10 +29014,10 @@
         <v>199</v>
       </c>
       <c r="AC59" s="76" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="AD59" s="26" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AE59" s="16" t="s">
         <v>261</v>
@@ -29073,7 +29073,7 @@
       </c>
       <c r="BA59" s="16"/>
       <c r="BB59" s="16" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="BC59" s="14" t="s">
         <v>182</v>
@@ -29143,7 +29143,7 @@
         <v>221</v>
       </c>
       <c r="CP59" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ59" s="14" t="s">
         <v>213</v>
@@ -29345,10 +29345,10 @@
         <v>199</v>
       </c>
       <c r="AC60" s="76" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="AD60" s="26" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="AE60" s="16" t="s">
         <v>261</v>
@@ -29404,7 +29404,7 @@
       </c>
       <c r="BA60" s="16"/>
       <c r="BB60" s="16" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="BC60" s="14" t="s">
         <v>182</v>
@@ -29474,7 +29474,7 @@
         <v>221</v>
       </c>
       <c r="CP60" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ60" s="14" t="s">
         <v>213</v>
@@ -29676,10 +29676,10 @@
         <v>199</v>
       </c>
       <c r="AC61" s="76" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="AD61" s="26" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="AE61" s="16" t="s">
         <v>261</v>
@@ -29735,7 +29735,7 @@
       </c>
       <c r="BA61" s="16"/>
       <c r="BB61" s="16" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="BC61" s="14" t="s">
         <v>182</v>
@@ -29805,7 +29805,7 @@
         <v>221</v>
       </c>
       <c r="CP61" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ61" s="14" t="s">
         <v>213</v>
@@ -30008,10 +30008,10 @@
         <v>199</v>
       </c>
       <c r="AC62" s="75" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="AD62" s="78" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="AE62" s="58" t="s">
         <v>261</v>
@@ -30028,7 +30028,7 @@
       </c>
       <c r="AI62" s="58"/>
       <c r="AJ62" s="74" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="AK62" s="64"/>
       <c r="AL62" s="58"/>
@@ -30070,7 +30070,7 @@
       </c>
       <c r="BA62" s="58"/>
       <c r="BB62" s="58" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BC62" s="60" t="s">
         <v>182</v>
@@ -30144,7 +30144,7 @@
       </c>
       <c r="CO62" s="60"/>
       <c r="CP62" s="60" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ62" s="60" t="s">
         <v>213</v>
@@ -30411,10 +30411,10 @@
         <v>199</v>
       </c>
       <c r="AC63" s="76" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AD63" s="76" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="AE63" s="16" t="s">
         <v>261</v>
@@ -30474,7 +30474,7 @@
       </c>
       <c r="BA63" s="16"/>
       <c r="BB63" s="16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BC63" s="14" t="s">
         <v>182</v>
@@ -30544,7 +30544,7 @@
         <v>221</v>
       </c>
       <c r="CP63" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ63" s="14" t="s">
         <v>213</v>
@@ -30744,10 +30744,10 @@
         <v>199</v>
       </c>
       <c r="AC64" s="76" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="AD64" s="76" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="AE64" s="16" t="s">
         <v>261</v>
@@ -30807,7 +30807,7 @@
       </c>
       <c r="BA64" s="16"/>
       <c r="BB64" s="16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BC64" s="14" t="s">
         <v>182</v>
@@ -30877,7 +30877,7 @@
         <v>221</v>
       </c>
       <c r="CP64" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ64" s="14" t="s">
         <v>213</v>
@@ -31080,10 +31080,10 @@
         <v>199</v>
       </c>
       <c r="AC65" s="76" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="AD65" s="76" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AE65" s="16" t="s">
         <v>261</v>
@@ -31144,7 +31144,7 @@
       </c>
       <c r="BA65" s="16"/>
       <c r="BB65" s="16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BC65" s="14" t="s">
         <v>182</v>
@@ -31218,7 +31218,7 @@
       </c>
       <c r="CO65" s="14"/>
       <c r="CP65" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ65" s="14" t="s">
         <v>213</v>
@@ -31485,10 +31485,10 @@
         <v>199</v>
       </c>
       <c r="AC66" s="76" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AD66" s="76" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AE66" s="16" t="s">
         <v>261</v>
@@ -31546,7 +31546,7 @@
       </c>
       <c r="BA66" s="16"/>
       <c r="BB66" s="16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BC66" s="14" t="s">
         <v>182</v>
@@ -31616,7 +31616,7 @@
         <v>221</v>
       </c>
       <c r="CP66" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ66" s="14" t="s">
         <v>213</v>
@@ -31816,10 +31816,10 @@
         <v>199</v>
       </c>
       <c r="AC67" s="76" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AD67" s="76" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="AE67" s="16" t="s">
         <v>261</v>
@@ -31879,7 +31879,7 @@
       </c>
       <c r="BA67" s="16"/>
       <c r="BB67" s="16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BC67" s="14" t="s">
         <v>182</v>
@@ -31949,7 +31949,7 @@
         <v>221</v>
       </c>
       <c r="CP67" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ67" s="14" t="s">
         <v>213</v>
@@ -32149,10 +32149,10 @@
         <v>199</v>
       </c>
       <c r="AC68" s="76" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AD68" s="76" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="AE68" s="16" t="s">
         <v>261</v>
@@ -32212,7 +32212,7 @@
       </c>
       <c r="BA68" s="16"/>
       <c r="BB68" s="16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BC68" s="14" t="s">
         <v>182</v>
@@ -32282,7 +32282,7 @@
         <v>221</v>
       </c>
       <c r="CP68" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ68" s="14" t="s">
         <v>213</v>
@@ -32482,10 +32482,10 @@
         <v>199</v>
       </c>
       <c r="AC69" s="76" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AD69" s="76" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="AE69" s="16" t="s">
         <v>261</v>
@@ -32545,7 +32545,7 @@
       </c>
       <c r="BA69" s="16"/>
       <c r="BB69" s="16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BC69" s="14" t="s">
         <v>182</v>
@@ -32615,7 +32615,7 @@
         <v>221</v>
       </c>
       <c r="CP69" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ69" s="14" t="s">
         <v>213</v>
@@ -32818,10 +32818,10 @@
         <v>199</v>
       </c>
       <c r="AC70" s="76" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AD70" s="76" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AE70" s="16" t="s">
         <v>261</v>
@@ -32882,7 +32882,7 @@
       </c>
       <c r="BA70" s="16"/>
       <c r="BB70" s="16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BC70" s="14" t="s">
         <v>182</v>
@@ -32956,7 +32956,7 @@
       </c>
       <c r="CO70" s="14"/>
       <c r="CP70" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ70" s="14" t="s">
         <v>213</v>
@@ -33223,10 +33223,10 @@
         <v>199</v>
       </c>
       <c r="AC71" s="76" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AD71" s="76" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="AE71" s="16" t="s">
         <v>261</v>
@@ -33286,7 +33286,7 @@
       </c>
       <c r="BA71" s="16"/>
       <c r="BB71" s="16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BC71" s="14" t="s">
         <v>182</v>
@@ -33356,7 +33356,7 @@
         <v>221</v>
       </c>
       <c r="CP71" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ71" s="14" t="s">
         <v>213</v>
@@ -33556,10 +33556,10 @@
         <v>199</v>
       </c>
       <c r="AC72" s="76" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="AD72" s="76" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="AE72" s="16" t="s">
         <v>261</v>
@@ -33619,7 +33619,7 @@
       </c>
       <c r="BA72" s="16"/>
       <c r="BB72" s="16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BC72" s="14" t="s">
         <v>182</v>
@@ -33689,7 +33689,7 @@
         <v>221</v>
       </c>
       <c r="CP72" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ72" s="14" t="s">
         <v>213</v>
@@ -33889,10 +33889,10 @@
         <v>199</v>
       </c>
       <c r="AC73" s="76" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AD73" s="76" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="AE73" s="16" t="s">
         <v>261</v>
@@ -33952,7 +33952,7 @@
       </c>
       <c r="BA73" s="16"/>
       <c r="BB73" s="16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BC73" s="14" t="s">
         <v>182</v>
@@ -34022,7 +34022,7 @@
         <v>221</v>
       </c>
       <c r="CP73" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ73" s="14" t="s">
         <v>213</v>
@@ -34222,10 +34222,10 @@
         <v>199</v>
       </c>
       <c r="AC74" s="76" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="AD74" s="76" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="AE74" s="16" t="s">
         <v>261</v>
@@ -34285,7 +34285,7 @@
       </c>
       <c r="BA74" s="16"/>
       <c r="BB74" s="16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BC74" s="14" t="s">
         <v>182</v>
@@ -34355,7 +34355,7 @@
         <v>221</v>
       </c>
       <c r="CP74" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ74" s="14" t="s">
         <v>213</v>
@@ -34558,10 +34558,10 @@
         <v>199</v>
       </c>
       <c r="AC75" s="76" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="AD75" s="76" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AE75" s="16" t="s">
         <v>261</v>
@@ -34622,7 +34622,7 @@
       </c>
       <c r="BA75" s="16"/>
       <c r="BB75" s="16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BC75" s="14" t="s">
         <v>182</v>
@@ -34696,7 +34696,7 @@
       </c>
       <c r="CO75" s="14"/>
       <c r="CP75" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ75" s="14" t="s">
         <v>213</v>
@@ -34963,10 +34963,10 @@
         <v>199</v>
       </c>
       <c r="AC76" s="76" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AD76" s="76" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AE76" s="16" t="s">
         <v>261</v>
@@ -35026,7 +35026,7 @@
       </c>
       <c r="BA76" s="16"/>
       <c r="BB76" s="16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BC76" s="14" t="s">
         <v>182</v>
@@ -35096,7 +35096,7 @@
         <v>221</v>
       </c>
       <c r="CP76" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ76" s="14" t="s">
         <v>213</v>
@@ -35296,10 +35296,10 @@
         <v>199</v>
       </c>
       <c r="AC77" s="76" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AD77" s="76" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="AE77" s="16" t="s">
         <v>261</v>
@@ -35359,7 +35359,7 @@
       </c>
       <c r="BA77" s="16"/>
       <c r="BB77" s="16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BC77" s="14" t="s">
         <v>182</v>
@@ -35429,7 +35429,7 @@
         <v>221</v>
       </c>
       <c r="CP77" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ77" s="14" t="s">
         <v>213</v>
@@ -35629,10 +35629,10 @@
         <v>199</v>
       </c>
       <c r="AC78" s="76" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="AD78" s="76" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AE78" s="16" t="s">
         <v>261</v>
@@ -35692,7 +35692,7 @@
       </c>
       <c r="BA78" s="16"/>
       <c r="BB78" s="16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BC78" s="14" t="s">
         <v>182</v>
@@ -35762,7 +35762,7 @@
         <v>221</v>
       </c>
       <c r="CP78" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ78" s="14" t="s">
         <v>213</v>
@@ -35965,10 +35965,10 @@
         <v>199</v>
       </c>
       <c r="AC79" s="76" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AD79" s="76" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AE79" s="16" t="s">
         <v>261</v>
@@ -36029,7 +36029,7 @@
       </c>
       <c r="BA79" s="16"/>
       <c r="BB79" s="16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BC79" s="14" t="s">
         <v>182</v>
@@ -36103,7 +36103,7 @@
       </c>
       <c r="CO79" s="14"/>
       <c r="CP79" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ79" s="14" t="s">
         <v>213</v>
@@ -36370,10 +36370,10 @@
         <v>199</v>
       </c>
       <c r="AC80" s="76" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AD80" s="76" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AE80" s="16" t="s">
         <v>261</v>
@@ -36433,7 +36433,7 @@
       </c>
       <c r="BA80" s="16"/>
       <c r="BB80" s="16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BC80" s="14" t="s">
         <v>182</v>
@@ -36503,7 +36503,7 @@
         <v>221</v>
       </c>
       <c r="CP80" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ80" s="14" t="s">
         <v>213</v>
@@ -36703,10 +36703,10 @@
         <v>199</v>
       </c>
       <c r="AC81" s="76" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AD81" s="76" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="AE81" s="16" t="s">
         <v>261</v>
@@ -36766,7 +36766,7 @@
       </c>
       <c r="BA81" s="16"/>
       <c r="BB81" s="16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BC81" s="14" t="s">
         <v>182</v>
@@ -36836,7 +36836,7 @@
         <v>221</v>
       </c>
       <c r="CP81" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ81" s="14" t="s">
         <v>213</v>
@@ -37036,10 +37036,10 @@
         <v>199</v>
       </c>
       <c r="AC82" s="76" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AD82" s="76" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AE82" s="16" t="s">
         <v>261</v>
@@ -37099,7 +37099,7 @@
       </c>
       <c r="BA82" s="16"/>
       <c r="BB82" s="16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BC82" s="14" t="s">
         <v>182</v>
@@ -37169,7 +37169,7 @@
         <v>221</v>
       </c>
       <c r="CP82" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ82" s="14" t="s">
         <v>213</v>
@@ -37366,10 +37366,10 @@
         <v>199</v>
       </c>
       <c r="AC83" s="76" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AD83" s="76" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="AE83" s="16" t="s">
         <v>261</v>
@@ -37427,7 +37427,7 @@
       </c>
       <c r="BA83" s="16"/>
       <c r="BB83" s="16" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BC83" s="14" t="s">
         <v>182</v>
@@ -37497,7 +37497,7 @@
         <v>221</v>
       </c>
       <c r="CP83" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ83" s="14" t="s">
         <v>213</v>
@@ -37702,10 +37702,10 @@
         <v>199</v>
       </c>
       <c r="AC84" s="75" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="AD84" s="75" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AE84" s="46" t="s">
         <v>261</v>
@@ -37766,7 +37766,7 @@
       </c>
       <c r="BA84" s="46"/>
       <c r="BB84" s="46" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="BC84" s="43" t="s">
         <v>182</v>
@@ -37840,7 +37840,7 @@
       </c>
       <c r="CO84" s="43"/>
       <c r="CP84" s="43" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ84" s="43" t="s">
         <v>213</v>
@@ -38050,7 +38050,7 @@
         <v>500</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F85" s="15" t="s">
         <v>768</v>
@@ -38110,10 +38110,10 @@
         <v>199</v>
       </c>
       <c r="AC85" s="76" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AD85" s="76" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="AE85" s="16" t="s">
         <v>261</v>
@@ -38173,7 +38173,7 @@
       </c>
       <c r="BA85" s="16"/>
       <c r="BB85" s="16" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="BC85" s="14" t="s">
         <v>182</v>
@@ -38243,7 +38243,7 @@
         <v>221</v>
       </c>
       <c r="CP85" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ85" s="14" t="s">
         <v>213</v>
@@ -38386,7 +38386,7 @@
         <v>498</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F86" s="15" t="s">
         <v>768</v>
@@ -38446,10 +38446,10 @@
         <v>199</v>
       </c>
       <c r="AC86" s="76" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AD86" s="76" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AE86" s="16" t="s">
         <v>261</v>
@@ -38509,7 +38509,7 @@
       </c>
       <c r="BA86" s="16"/>
       <c r="BB86" s="16" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="BC86" s="14" t="s">
         <v>182</v>
@@ -38579,7 +38579,7 @@
         <v>221</v>
       </c>
       <c r="CP86" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ86" s="14" t="s">
         <v>213</v>
@@ -38722,7 +38722,7 @@
         <v>501</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F87" s="15" t="s">
         <v>768</v>
@@ -38782,10 +38782,10 @@
         <v>199</v>
       </c>
       <c r="AC87" s="76" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AD87" s="76" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AE87" s="16" t="s">
         <v>261</v>
@@ -38845,7 +38845,7 @@
       </c>
       <c r="BA87" s="16"/>
       <c r="BB87" s="16" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="BC87" s="14" t="s">
         <v>182</v>
@@ -38915,7 +38915,7 @@
         <v>221</v>
       </c>
       <c r="CP87" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ87" s="14" t="s">
         <v>213</v>
@@ -39058,7 +39058,7 @@
         <v>502</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F88" s="15" t="s">
         <v>768</v>
@@ -39118,10 +39118,10 @@
         <v>199</v>
       </c>
       <c r="AC88" s="76" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AD88" s="76" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="AE88" s="16" t="s">
         <v>261</v>
@@ -39138,7 +39138,7 @@
       </c>
       <c r="AI88" s="16"/>
       <c r="AJ88" s="18" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AK88" s="16"/>
       <c r="AL88" s="16"/>
@@ -39179,7 +39179,7 @@
       </c>
       <c r="BA88" s="16"/>
       <c r="BB88" s="16" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="BC88" s="14" t="s">
         <v>182</v>
@@ -39249,7 +39249,7 @@
         <v>221</v>
       </c>
       <c r="CP88" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ88" s="14" t="s">
         <v>213</v>
@@ -39393,7 +39393,7 @@
         <v>770</v>
       </c>
       <c r="D89" s="45" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E89" s="43"/>
       <c r="F89" s="45" t="s">
@@ -39454,10 +39454,10 @@
         <v>199</v>
       </c>
       <c r="AC89" s="45" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AD89" s="75" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AE89" s="46" t="s">
         <v>261</v>
@@ -39518,7 +39518,7 @@
       </c>
       <c r="BA89" s="46"/>
       <c r="BB89" s="46" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC89" s="43" t="s">
         <v>182</v>
@@ -39592,7 +39592,7 @@
       </c>
       <c r="CO89" s="43"/>
       <c r="CP89" s="43" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ89" s="43" t="s">
         <v>213</v>
@@ -39803,7 +39803,7 @@
         <v>515</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E90" s="14"/>
       <c r="F90" s="19" t="s">
@@ -39864,10 +39864,10 @@
         <v>199</v>
       </c>
       <c r="AC90" s="76" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AD90" s="76" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="AE90" s="16" t="s">
         <v>261</v>
@@ -39928,7 +39928,7 @@
       </c>
       <c r="BA90" s="16"/>
       <c r="BB90" s="16" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="BC90" s="14" t="s">
         <v>182</v>
@@ -40002,7 +40002,7 @@
       </c>
       <c r="CO90" s="14"/>
       <c r="CP90" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ90" s="14" t="s">
         <v>213</v>
@@ -40213,7 +40213,7 @@
         <v>516</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E91" s="14"/>
       <c r="F91" s="19" t="s">
@@ -40274,10 +40274,10 @@
         <v>199</v>
       </c>
       <c r="AC91" s="76" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AD91" s="76" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AE91" s="16" t="s">
         <v>261</v>
@@ -40338,7 +40338,7 @@
       </c>
       <c r="BA91" s="16"/>
       <c r="BB91" s="16" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="BC91" s="14" t="s">
         <v>182</v>
@@ -40412,7 +40412,7 @@
       </c>
       <c r="CO91" s="14"/>
       <c r="CP91" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ91" s="14" t="s">
         <v>213</v>
@@ -40623,7 +40623,7 @@
         <v>517</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E92" s="14"/>
       <c r="F92" s="19" t="s">
@@ -40684,10 +40684,10 @@
         <v>199</v>
       </c>
       <c r="AC92" s="76" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AD92" s="76" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="AE92" s="16" t="s">
         <v>261</v>
@@ -40748,7 +40748,7 @@
       </c>
       <c r="BA92" s="16"/>
       <c r="BB92" s="16" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="BC92" s="14" t="s">
         <v>182</v>
@@ -40822,7 +40822,7 @@
       </c>
       <c r="CO92" s="14"/>
       <c r="CP92" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ92" s="14" t="s">
         <v>213</v>
@@ -41092,10 +41092,10 @@
         <v>199</v>
       </c>
       <c r="AC93" s="75" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="AD93" s="78" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="AE93" s="58" t="s">
         <v>261</v>
@@ -41154,7 +41154,7 @@
       </c>
       <c r="BA93" s="58"/>
       <c r="BB93" s="58" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC93" s="60" t="s">
         <v>182</v>
@@ -41228,7 +41228,7 @@
       </c>
       <c r="CO93" s="60"/>
       <c r="CP93" s="60" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ93" s="60" t="s">
         <v>213</v>
@@ -41498,10 +41498,10 @@
         <v>199</v>
       </c>
       <c r="AC94" s="76" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AD94" s="76" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="AE94" s="16" t="s">
         <v>261</v>
@@ -41562,7 +41562,7 @@
       </c>
       <c r="BA94" s="16"/>
       <c r="BB94" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC94" s="14" t="s">
         <v>182</v>
@@ -41636,7 +41636,7 @@
       </c>
       <c r="CO94" s="14"/>
       <c r="CP94" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ94" s="14" t="s">
         <v>213</v>
@@ -41904,10 +41904,10 @@
         <v>199</v>
       </c>
       <c r="AC95" s="76" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="AD95" s="76" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="AE95" s="16" t="s">
         <v>261</v>
@@ -41968,7 +41968,7 @@
       </c>
       <c r="BA95" s="16"/>
       <c r="BB95" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC95" s="14" t="s">
         <v>182</v>
@@ -42042,7 +42042,7 @@
       </c>
       <c r="CO95" s="14"/>
       <c r="CP95" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ95" s="14" t="s">
         <v>213</v>
@@ -42310,10 +42310,10 @@
         <v>199</v>
       </c>
       <c r="AC96" s="76" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AD96" s="76" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="AE96" s="16" t="s">
         <v>261</v>
@@ -42374,7 +42374,7 @@
       </c>
       <c r="BA96" s="16"/>
       <c r="BB96" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC96" s="14" t="s">
         <v>182</v>
@@ -42448,7 +42448,7 @@
       </c>
       <c r="CO96" s="14"/>
       <c r="CP96" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ96" s="14" t="s">
         <v>213</v>
@@ -42716,10 +42716,10 @@
         <v>199</v>
       </c>
       <c r="AC97" s="76" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AD97" s="76" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="AE97" s="16" t="s">
         <v>261</v>
@@ -42780,7 +42780,7 @@
       </c>
       <c r="BA97" s="16"/>
       <c r="BB97" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC97" s="14" t="s">
         <v>182</v>
@@ -42854,7 +42854,7 @@
       </c>
       <c r="CO97" s="14"/>
       <c r="CP97" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ97" s="14" t="s">
         <v>213</v>
@@ -43124,10 +43124,10 @@
         <v>199</v>
       </c>
       <c r="AC98" s="76" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AD98" s="76" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="AE98" s="16" t="s">
         <v>261</v>
@@ -43188,7 +43188,7 @@
       </c>
       <c r="BA98" s="16"/>
       <c r="BB98" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC98" s="14" t="s">
         <v>182</v>
@@ -43262,7 +43262,7 @@
       </c>
       <c r="CO98" s="14"/>
       <c r="CP98" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ98" s="14" t="s">
         <v>213</v>
@@ -43530,10 +43530,10 @@
         <v>199</v>
       </c>
       <c r="AC99" s="76" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AD99" s="76" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="AE99" s="16" t="s">
         <v>261</v>
@@ -43594,7 +43594,7 @@
       </c>
       <c r="BA99" s="16"/>
       <c r="BB99" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC99" s="14" t="s">
         <v>182</v>
@@ -43668,7 +43668,7 @@
       </c>
       <c r="CO99" s="14"/>
       <c r="CP99" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ99" s="14" t="s">
         <v>213</v>
@@ -43936,10 +43936,10 @@
         <v>199</v>
       </c>
       <c r="AC100" s="76" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AD100" s="76" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AE100" s="16" t="s">
         <v>261</v>
@@ -44000,7 +44000,7 @@
       </c>
       <c r="BA100" s="16"/>
       <c r="BB100" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC100" s="14" t="s">
         <v>182</v>
@@ -44074,7 +44074,7 @@
       </c>
       <c r="CO100" s="14"/>
       <c r="CP100" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ100" s="14" t="s">
         <v>213</v>
@@ -44342,10 +44342,10 @@
         <v>199</v>
       </c>
       <c r="AC101" s="76" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AD101" s="76" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="AE101" s="16" t="s">
         <v>261</v>
@@ -44406,7 +44406,7 @@
       </c>
       <c r="BA101" s="16"/>
       <c r="BB101" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC101" s="14" t="s">
         <v>182</v>
@@ -44480,7 +44480,7 @@
       </c>
       <c r="CO101" s="14"/>
       <c r="CP101" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ101" s="14" t="s">
         <v>213</v>
@@ -44748,10 +44748,10 @@
         <v>199</v>
       </c>
       <c r="AC102" s="76" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="AD102" s="76" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="AE102" s="16" t="s">
         <v>261</v>
@@ -44812,7 +44812,7 @@
       </c>
       <c r="BA102" s="16"/>
       <c r="BB102" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC102" s="14" t="s">
         <v>182</v>
@@ -44886,7 +44886,7 @@
       </c>
       <c r="CO102" s="14"/>
       <c r="CP102" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ102" s="14" t="s">
         <v>213</v>
@@ -45156,10 +45156,10 @@
         <v>199</v>
       </c>
       <c r="AC103" s="76" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AD103" s="76" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="AE103" s="16" t="s">
         <v>261</v>
@@ -45220,7 +45220,7 @@
       </c>
       <c r="BA103" s="16"/>
       <c r="BB103" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC103" s="14" t="s">
         <v>182</v>
@@ -45294,7 +45294,7 @@
       </c>
       <c r="CO103" s="14"/>
       <c r="CP103" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ103" s="14" t="s">
         <v>213</v>
@@ -45562,10 +45562,10 @@
         <v>199</v>
       </c>
       <c r="AC104" s="76" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AD104" s="76" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="AE104" s="16" t="s">
         <v>261</v>
@@ -45626,7 +45626,7 @@
       </c>
       <c r="BA104" s="16"/>
       <c r="BB104" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC104" s="14" t="s">
         <v>182</v>
@@ -45700,7 +45700,7 @@
       </c>
       <c r="CO104" s="14"/>
       <c r="CP104" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ104" s="14" t="s">
         <v>213</v>
@@ -45970,10 +45970,10 @@
         <v>199</v>
       </c>
       <c r="AC105" s="76" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="AD105" s="76" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="AE105" s="16" t="s">
         <v>261</v>
@@ -46034,7 +46034,7 @@
       </c>
       <c r="BA105" s="16"/>
       <c r="BB105" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC105" s="14" t="s">
         <v>182</v>
@@ -46108,7 +46108,7 @@
       </c>
       <c r="CO105" s="14"/>
       <c r="CP105" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ105" s="14" t="s">
         <v>213</v>
@@ -46378,10 +46378,10 @@
         <v>199</v>
       </c>
       <c r="AC106" s="76" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AD106" s="76" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="AE106" s="16" t="s">
         <v>261</v>
@@ -46442,7 +46442,7 @@
       </c>
       <c r="BA106" s="16"/>
       <c r="BB106" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC106" s="14" t="s">
         <v>182</v>
@@ -46516,7 +46516,7 @@
       </c>
       <c r="CO106" s="14"/>
       <c r="CP106" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ106" s="14" t="s">
         <v>213</v>
@@ -46784,10 +46784,10 @@
         <v>199</v>
       </c>
       <c r="AC107" s="76" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AD107" s="76" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AE107" s="16" t="s">
         <v>261</v>
@@ -46848,7 +46848,7 @@
       </c>
       <c r="BA107" s="16"/>
       <c r="BB107" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC107" s="14" t="s">
         <v>182</v>
@@ -46922,7 +46922,7 @@
       </c>
       <c r="CO107" s="14"/>
       <c r="CP107" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ107" s="14" t="s">
         <v>213</v>
@@ -47192,10 +47192,10 @@
         <v>199</v>
       </c>
       <c r="AC108" s="76" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AD108" s="76" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="AE108" s="16" t="s">
         <v>261</v>
@@ -47256,7 +47256,7 @@
       </c>
       <c r="BA108" s="16"/>
       <c r="BB108" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC108" s="14" t="s">
         <v>182</v>
@@ -47330,7 +47330,7 @@
       </c>
       <c r="CO108" s="14"/>
       <c r="CP108" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ108" s="14" t="s">
         <v>213</v>
@@ -47598,10 +47598,10 @@
         <v>199</v>
       </c>
       <c r="AC109" s="76" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="AD109" s="76" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="AE109" s="16" t="s">
         <v>261</v>
@@ -47662,7 +47662,7 @@
       </c>
       <c r="BA109" s="16"/>
       <c r="BB109" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC109" s="14" t="s">
         <v>182</v>
@@ -47736,7 +47736,7 @@
       </c>
       <c r="CO109" s="14"/>
       <c r="CP109" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ109" s="14" t="s">
         <v>213</v>
@@ -48004,10 +48004,10 @@
         <v>199</v>
       </c>
       <c r="AC110" s="76" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AD110" s="76" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="AE110" s="16" t="s">
         <v>261</v>
@@ -48068,7 +48068,7 @@
       </c>
       <c r="BA110" s="16"/>
       <c r="BB110" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC110" s="14" t="s">
         <v>182</v>
@@ -48142,7 +48142,7 @@
       </c>
       <c r="CO110" s="14"/>
       <c r="CP110" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ110" s="14" t="s">
         <v>213</v>
@@ -48410,10 +48410,10 @@
         <v>199</v>
       </c>
       <c r="AC111" s="76" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AD111" s="76" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="AE111" s="16" t="s">
         <v>261</v>
@@ -48474,7 +48474,7 @@
       </c>
       <c r="BA111" s="16"/>
       <c r="BB111" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC111" s="14" t="s">
         <v>182</v>
@@ -48548,7 +48548,7 @@
       </c>
       <c r="CO111" s="14"/>
       <c r="CP111" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ111" s="14" t="s">
         <v>213</v>
@@ -48816,10 +48816,10 @@
         <v>199</v>
       </c>
       <c r="AC112" s="76" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AD112" s="76" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="AE112" s="16" t="s">
         <v>261</v>
@@ -48880,7 +48880,7 @@
       </c>
       <c r="BA112" s="16"/>
       <c r="BB112" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC112" s="14" t="s">
         <v>182</v>
@@ -48954,7 +48954,7 @@
       </c>
       <c r="CO112" s="14"/>
       <c r="CP112" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ112" s="14" t="s">
         <v>213</v>
@@ -49222,10 +49222,10 @@
         <v>199</v>
       </c>
       <c r="AC113" s="76" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AD113" s="76" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AE113" s="16" t="s">
         <v>261</v>
@@ -49286,7 +49286,7 @@
       </c>
       <c r="BA113" s="16"/>
       <c r="BB113" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC113" s="14" t="s">
         <v>182</v>
@@ -49360,7 +49360,7 @@
       </c>
       <c r="CO113" s="14"/>
       <c r="CP113" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ113" s="14" t="s">
         <v>213</v>
@@ -49628,10 +49628,10 @@
         <v>199</v>
       </c>
       <c r="AC114" s="76" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AD114" s="76" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="AE114" s="16" t="s">
         <v>261</v>
@@ -49692,7 +49692,7 @@
       </c>
       <c r="BA114" s="16"/>
       <c r="BB114" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC114" s="14" t="s">
         <v>182</v>
@@ -49766,7 +49766,7 @@
       </c>
       <c r="CO114" s="14"/>
       <c r="CP114" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ114" s="14" t="s">
         <v>213</v>
@@ -50034,10 +50034,10 @@
         <v>199</v>
       </c>
       <c r="AC115" s="76" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AD115" s="76" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="AE115" s="16" t="s">
         <v>261</v>
@@ -50098,7 +50098,7 @@
       </c>
       <c r="BA115" s="16"/>
       <c r="BB115" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC115" s="14" t="s">
         <v>182</v>
@@ -50172,7 +50172,7 @@
       </c>
       <c r="CO115" s="14"/>
       <c r="CP115" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ115" s="14" t="s">
         <v>213</v>
@@ -50440,10 +50440,10 @@
         <v>199</v>
       </c>
       <c r="AC116" s="76" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="AD116" s="76" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AE116" s="16" t="s">
         <v>261</v>
@@ -50502,7 +50502,7 @@
       </c>
       <c r="BA116" s="16"/>
       <c r="BB116" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC116" s="14" t="s">
         <v>182</v>
@@ -50576,7 +50576,7 @@
       </c>
       <c r="CO116" s="14"/>
       <c r="CP116" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ116" s="14" t="s">
         <v>213</v>
@@ -50844,10 +50844,10 @@
         <v>199</v>
       </c>
       <c r="AC117" s="76" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AD117" s="76" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AE117" s="16" t="s">
         <v>261</v>
@@ -50908,7 +50908,7 @@
       </c>
       <c r="BA117" s="16"/>
       <c r="BB117" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC117" s="14" t="s">
         <v>182</v>
@@ -50982,7 +50982,7 @@
       </c>
       <c r="CO117" s="14"/>
       <c r="CP117" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ117" s="14" t="s">
         <v>213</v>
@@ -51250,10 +51250,10 @@
         <v>199</v>
       </c>
       <c r="AC118" s="76" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="AD118" s="76" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="AE118" s="16" t="s">
         <v>261</v>
@@ -51314,7 +51314,7 @@
       </c>
       <c r="BA118" s="16"/>
       <c r="BB118" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC118" s="14" t="s">
         <v>182</v>
@@ -51388,7 +51388,7 @@
       </c>
       <c r="CO118" s="14"/>
       <c r="CP118" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ118" s="14" t="s">
         <v>213</v>
@@ -51656,10 +51656,10 @@
         <v>199</v>
       </c>
       <c r="AC119" s="76" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AD119" s="76" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="AE119" s="16" t="s">
         <v>261</v>
@@ -51720,7 +51720,7 @@
       </c>
       <c r="BA119" s="16"/>
       <c r="BB119" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC119" s="14" t="s">
         <v>182</v>
@@ -51794,7 +51794,7 @@
       </c>
       <c r="CO119" s="14"/>
       <c r="CP119" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ119" s="14" t="s">
         <v>213</v>
@@ -52062,10 +52062,10 @@
         <v>199</v>
       </c>
       <c r="AC120" s="76" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AD120" s="76" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="AE120" s="16" t="s">
         <v>261</v>
@@ -52126,7 +52126,7 @@
       </c>
       <c r="BA120" s="16"/>
       <c r="BB120" s="16" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="BC120" s="14" t="s">
         <v>182</v>
@@ -52200,7 +52200,7 @@
       </c>
       <c r="CO120" s="14"/>
       <c r="CP120" s="14" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="CQ120" s="14" t="s">
         <v>213</v>
@@ -53982,7 +53982,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>499</v>
       </c>
@@ -54020,7 +54020,7 @@
     <col min="1" max="16384" width="25.8984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>329</v>
       </c>
